--- a/toolbox_data/species/taxa_user.xlsx
+++ b/toolbox_data/species/taxa_user.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Scientific name</t>
   </si>
@@ -39,13 +39,82 @@
     <t>Eukaryota</t>
   </si>
   <si>
-    <t>Unidentified coccoid eukaryots</t>
-  </si>
-  <si>
     <t>Phylum</t>
   </si>
   <si>
-    <t>Unidentified flagellated eukaryots</t>
+    <t>Prokaryota</t>
+  </si>
+  <si>
+    <t>Flagellates phylum incertae sedis</t>
+  </si>
+  <si>
+    <t>Flagellates classes incertae sedis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Flagellates ordines incertae sedis</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Flagellates families incertae sedis</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Flagellates genera incertae sedis</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Flagellates species incertae sedis</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Unicells kingdom incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells phylum incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells classes incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells ordines incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells families incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells genera incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells species incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton phylum incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton classes incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton ordines incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton families incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton genera incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton species incertae sedis</t>
   </si>
 </sst>
 </file>
@@ -442,11 +511,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -479,24 +546,216 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
